--- a/Energy Consumption38.xlsx
+++ b/Energy Consumption38.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.857629251644543</v>
+        <v>3.39105785399794</v>
       </c>
       <c r="C2" t="n">
-        <v>1.747986327970052</v>
+        <v>0.6992512683249379</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.776800166829559</v>
+        <v>4.776038466560848</v>
       </c>
       <c r="C3" t="n">
-        <v>4.172598194485879</v>
+        <v>1.487991444271757</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.786790716792084</v>
+        <v>4.906956361660531</v>
       </c>
       <c r="C4" t="n">
-        <v>6.157511631260324</v>
+        <v>2.346843977729143</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.226910514737845</v>
+        <v>7.095214515952791</v>
       </c>
       <c r="C5" t="n">
-        <v>8.012788778505479</v>
+        <v>3.306489725452458</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8.709024856648773</v>
+        <v>9.409135020118875</v>
       </c>
       <c r="C6" t="n">
-        <v>10.19615547664056</v>
+        <v>4.276037286930864</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.51447077077968</v>
+        <v>9.829943325960574</v>
       </c>
       <c r="C7" t="n">
-        <v>12.30729112672268</v>
+        <v>5.314247456939732</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>11.76219420967146</v>
+        <v>13.6996308890176</v>
       </c>
       <c r="C8" t="n">
-        <v>14.43277383093309</v>
+        <v>5.967354696538082</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>12.75334066387417</v>
+        <v>13.82085137585603</v>
       </c>
       <c r="C9" t="n">
-        <v>16.32591700123688</v>
+        <v>6.804923809010105</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>13.64124437767792</v>
+        <v>14.83491456537051</v>
       </c>
       <c r="C10" t="n">
-        <v>18.72456763870226</v>
+        <v>7.909190846096122</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>15.92385089762331</v>
+        <v>14.95911033097814</v>
       </c>
       <c r="C11" t="n">
-        <v>20.88564958580438</v>
+        <v>8.994304127790596</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>18.55731369709357</v>
+        <v>21.6965379458027</v>
       </c>
       <c r="C12" t="n">
-        <v>22.67959658182491</v>
+        <v>9.885675018990186</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>19.61535024942687</v>
+        <v>25.5421900738598</v>
       </c>
       <c r="C13" t="n">
-        <v>24.70102751143677</v>
+        <v>10.78153933301147</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>20.08862630761175</v>
+        <v>25.6218956729883</v>
       </c>
       <c r="C14" t="n">
-        <v>26.74399827565713</v>
+        <v>11.58945225760314</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>27.09420509443636</v>
+        <v>25.70805778311915</v>
       </c>
       <c r="C15" t="n">
-        <v>28.63412924853733</v>
+        <v>12.79137840339882</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>27.20977315982931</v>
+        <v>27.38371103004833</v>
       </c>
       <c r="C16" t="n">
-        <v>30.59243279004364</v>
+        <v>13.6459330165744</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>31.27641511690009</v>
+        <v>28.63990918739093</v>
       </c>
       <c r="C17" t="n">
-        <v>32.46338997912564</v>
+        <v>14.43633139326868</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>33.1737197894381</v>
+        <v>29.63641111753113</v>
       </c>
       <c r="C18" t="n">
-        <v>34.34274169927663</v>
+        <v>15.4657912796883</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>35.05520891896448</v>
+        <v>29.75427616056376</v>
       </c>
       <c r="C19" t="n">
-        <v>36.37678552902683</v>
+        <v>16.0315698557942</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>36.9913430367916</v>
+        <v>29.89312026977975</v>
       </c>
       <c r="C20" t="n">
-        <v>38.44439050031929</v>
+        <v>17.06009056598444</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>39.08125369027967</v>
+        <v>31.00338641297488</v>
       </c>
       <c r="C21" t="n">
-        <v>40.43441699365879</v>
+        <v>18.46590478413921</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>41.13231237827265</v>
+        <v>35.39749516784784</v>
       </c>
       <c r="C22" t="n">
-        <v>42.44105972246754</v>
+        <v>19.59962713818129</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>41.34910701326</v>
+        <v>35.55091013240617</v>
       </c>
       <c r="C23" t="n">
-        <v>44.50596803106902</v>
+        <v>20.61625198156935</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>43.73731675423701</v>
+        <v>36.7207941949767</v>
       </c>
       <c r="C24" t="n">
-        <v>46.67286268840225</v>
+        <v>21.21338889668544</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>45.58201146465903</v>
+        <v>36.84376913736955</v>
       </c>
       <c r="C25" t="n">
-        <v>48.96879539882958</v>
+        <v>22.10420018242315</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>47.07455378923604</v>
+        <v>38.36621303754708</v>
       </c>
       <c r="C26" t="n">
-        <v>51.10356134945876</v>
+        <v>22.74893893549961</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>49.91586216681362</v>
+        <v>38.40951430118925</v>
       </c>
       <c r="C27" t="n">
-        <v>53.05552132125332</v>
+        <v>23.4104987530423</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>52.19510926517768</v>
+        <v>38.49666784215022</v>
       </c>
       <c r="C28" t="n">
-        <v>54.9310642651912</v>
+        <v>24.44732715254547</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>55.18596151743993</v>
+        <v>42.49994436860529</v>
       </c>
       <c r="C29" t="n">
-        <v>56.80708959635803</v>
+        <v>26.07089876039941</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>56.11593088231966</v>
+        <v>43.08412604696379</v>
       </c>
       <c r="C30" t="n">
-        <v>58.82149556972203</v>
+        <v>26.9133378495347</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>59.15053804732752</v>
+        <v>49.14814027050019</v>
       </c>
       <c r="C31" t="n">
-        <v>61.01964260353918</v>
+        <v>27.88392528763817</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>59.50346947878161</v>
+        <v>49.31310077743742</v>
       </c>
       <c r="C32" t="n">
-        <v>63.11581260993977</v>
+        <v>28.67426184274756</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>65.34301433189965</v>
+        <v>51.61157168472089</v>
       </c>
       <c r="C33" t="n">
-        <v>65.01724036108776</v>
+        <v>29.59611614964999</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>69.98690762891131</v>
+        <v>51.72711240467387</v>
       </c>
       <c r="C34" t="n">
-        <v>67.26848320004804</v>
+        <v>30.41291300365097</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>72.18515322460547</v>
+        <v>53.9077547417444</v>
       </c>
       <c r="C35" t="n">
-        <v>69.22758946563651</v>
+        <v>31.17816367291812</v>
       </c>
     </row>
     <row r="36">
@@ -824,10 +824,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>73.95609559010256</v>
+        <v>55.367479528487</v>
       </c>
       <c r="C36" t="n">
-        <v>71.18275303956666</v>
+        <v>31.97812058888696</v>
       </c>
     </row>
     <row r="37">
@@ -835,10 +835,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>76.61666475940103</v>
+        <v>58.82308468637991</v>
       </c>
       <c r="C37" t="n">
-        <v>73.28112659241431</v>
+        <v>32.78373362118491</v>
       </c>
     </row>
     <row r="38">
@@ -846,10 +846,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>79.73994686715976</v>
+        <v>58.9228285046602</v>
       </c>
       <c r="C38" t="n">
-        <v>75.25800350700801</v>
+        <v>33.615534256519</v>
       </c>
     </row>
     <row r="39">
@@ -857,10 +857,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>80.19297601126891</v>
+        <v>59.14909276317007</v>
       </c>
       <c r="C39" t="n">
-        <v>77.19286521995181</v>
+        <v>34.61119128681807</v>
       </c>
     </row>
     <row r="40">
@@ -868,10 +868,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>80.48078422003118</v>
+        <v>66.33440682034083</v>
       </c>
       <c r="C40" t="n">
-        <v>79.07870131178024</v>
+        <v>35.67407127430278</v>
       </c>
     </row>
     <row r="41">
@@ -879,10 +879,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>83.28866430754202</v>
+        <v>66.48914716532038</v>
       </c>
       <c r="C41" t="n">
-        <v>81.1462082499573</v>
+        <v>36.42335496790051</v>
       </c>
     </row>
     <row r="42">
@@ -890,10 +890,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>85.60487902352779</v>
+        <v>70.25143776101797</v>
       </c>
       <c r="C42" t="n">
-        <v>82.99435396661491</v>
+        <v>37.67316715366122</v>
       </c>
     </row>
     <row r="43">
@@ -901,10 +901,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>88.66089148232037</v>
+        <v>78.52943680029652</v>
       </c>
       <c r="C43" t="n">
-        <v>84.94060086499506</v>
+        <v>38.97828985616626</v>
       </c>
     </row>
     <row r="44">
@@ -912,10 +912,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>91.13108940396137</v>
+        <v>85.39317880388944</v>
       </c>
       <c r="C44" t="n">
-        <v>87.03820205722083</v>
+        <v>39.83401648375021</v>
       </c>
     </row>
     <row r="45">
@@ -923,10 +923,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>91.90222484100431</v>
+        <v>87.59798209938131</v>
       </c>
       <c r="C45" t="n">
-        <v>89.03031706065873</v>
+        <v>41.03268199820609</v>
       </c>
     </row>
     <row r="46">
@@ -934,10 +934,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>95.45711298540486</v>
+        <v>87.7979391329324</v>
       </c>
       <c r="C46" t="n">
-        <v>90.89574955455915</v>
+        <v>41.71246517789266</v>
       </c>
     </row>
     <row r="47">
@@ -945,10 +945,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>96.15668250459328</v>
+        <v>87.91052813281124</v>
       </c>
       <c r="C47" t="n">
-        <v>92.88650028405459</v>
+        <v>42.58120238901444</v>
       </c>
     </row>
     <row r="48">
@@ -956,10 +956,21 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>97.45154918827336</v>
+        <v>88.75645137962633</v>
       </c>
       <c r="C48" t="n">
-        <v>95.02848307358204</v>
+        <v>43.42239086856442</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>90.03971422891796</v>
+      </c>
+      <c r="C49" t="n">
+        <v>44.28760029239231</v>
       </c>
     </row>
   </sheetData>
